--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vtn-Itga5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vtn-Itga5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.63043844217452</v>
+        <v>2.021590333333334</v>
       </c>
       <c r="H2">
-        <v>1.63043844217452</v>
+        <v>6.064771</v>
       </c>
       <c r="I2">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="J2">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N2">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q2">
-        <v>51.75991363976244</v>
+        <v>68.87709143691878</v>
       </c>
       <c r="R2">
-        <v>51.75991363976244</v>
+        <v>619.8938229322689</v>
       </c>
       <c r="S2">
-        <v>0.004574824412817736</v>
+        <v>0.005772711098139562</v>
       </c>
       <c r="T2">
-        <v>0.004574824412817736</v>
+        <v>0.005772711098139563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.63043844217452</v>
+        <v>2.021590333333334</v>
       </c>
       <c r="H3">
-        <v>1.63043844217452</v>
+        <v>6.064771</v>
       </c>
       <c r="I3">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="J3">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N3">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P3">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q3">
-        <v>45.0305304222971</v>
+        <v>55.968733108729</v>
       </c>
       <c r="R3">
-        <v>45.0305304222971</v>
+        <v>503.718597978561</v>
       </c>
       <c r="S3">
-        <v>0.003980044698911557</v>
+        <v>0.004690838710305806</v>
       </c>
       <c r="T3">
-        <v>0.003980044698911557</v>
+        <v>0.004690838710305806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.63043844217452</v>
+        <v>2.021590333333334</v>
       </c>
       <c r="H4">
-        <v>1.63043844217452</v>
+        <v>6.064771</v>
       </c>
       <c r="I4">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="J4">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N4">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q4">
-        <v>6.536632069238836</v>
+        <v>8.340996134675889</v>
       </c>
       <c r="R4">
-        <v>6.536632069238836</v>
+        <v>75.068965212083</v>
       </c>
       <c r="S4">
-        <v>0.0005777433126354493</v>
+        <v>0.0006990736680610436</v>
       </c>
       <c r="T4">
-        <v>0.0005777433126354493</v>
+        <v>0.0006990736680610436</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.1300695368319</v>
+        <v>25.140634</v>
       </c>
       <c r="H5">
-        <v>25.1300695368319</v>
+        <v>75.421902</v>
       </c>
       <c r="I5">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="J5">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N5">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q5">
-        <v>797.7794164696319</v>
+        <v>856.5601636731752</v>
       </c>
       <c r="R5">
-        <v>797.7794164696319</v>
+        <v>7709.041473058577</v>
       </c>
       <c r="S5">
-        <v>0.07051211050910691</v>
+        <v>0.07178982532369227</v>
       </c>
       <c r="T5">
-        <v>0.07051211050910691</v>
+        <v>0.07178982532369227</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.1300695368319</v>
+        <v>25.140634</v>
       </c>
       <c r="H6">
-        <v>25.1300695368319</v>
+        <v>75.421902</v>
       </c>
       <c r="I6">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="J6">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N6">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P6">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q6">
-        <v>694.0589301142247</v>
+        <v>696.0309471850981</v>
       </c>
       <c r="R6">
-        <v>694.0589301142247</v>
+        <v>6264.278524665881</v>
       </c>
       <c r="S6">
-        <v>0.06134472633628001</v>
+        <v>0.05833558719801471</v>
       </c>
       <c r="T6">
-        <v>0.06134472633628001</v>
+        <v>0.05833558719801471</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>25.1300695368319</v>
+        <v>25.140634</v>
       </c>
       <c r="H7">
-        <v>25.1300695368319</v>
+        <v>75.421902</v>
       </c>
       <c r="I7">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="J7">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N7">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q7">
-        <v>100.7495985052802</v>
+        <v>103.7291915971607</v>
       </c>
       <c r="R7">
-        <v>100.7495985052802</v>
+        <v>933.562724374446</v>
       </c>
       <c r="S7">
-        <v>0.008904800847068342</v>
+        <v>0.008693727377881303</v>
       </c>
       <c r="T7">
-        <v>0.008904800847068342</v>
+        <v>0.008693727377881301</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>151.768741529568</v>
+        <v>153.9412893333333</v>
       </c>
       <c r="H8">
-        <v>151.768741529568</v>
+        <v>461.823868</v>
       </c>
       <c r="I8">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239053</v>
       </c>
       <c r="J8">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239052</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N8">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q8">
-        <v>4818.051851322223</v>
+        <v>5244.894619102271</v>
       </c>
       <c r="R8">
-        <v>4818.051851322223</v>
+        <v>47204.05157192044</v>
       </c>
       <c r="S8">
-        <v>0.425845788404058</v>
+        <v>0.4395839130924054</v>
       </c>
       <c r="T8">
-        <v>0.425845788404058</v>
+        <v>0.4395839130924054</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>151.768741529568</v>
+        <v>153.9412893333333</v>
       </c>
       <c r="H9">
-        <v>151.768741529568</v>
+        <v>461.823868</v>
       </c>
       <c r="I9">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239053</v>
       </c>
       <c r="J9">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239052</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N9">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P9">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q9">
-        <v>4191.649777029381</v>
+        <v>4261.941104014132</v>
       </c>
       <c r="R9">
-        <v>4191.649777029381</v>
+        <v>38357.46993612719</v>
       </c>
       <c r="S9">
-        <v>0.3704809452233089</v>
+        <v>0.3572008369908045</v>
       </c>
       <c r="T9">
-        <v>0.3704809452233089</v>
+        <v>0.3572008369908045</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>151.768741529568</v>
+        <v>153.9412893333333</v>
       </c>
       <c r="H10">
-        <v>151.768741529568</v>
+        <v>461.823868</v>
       </c>
       <c r="I10">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239053</v>
       </c>
       <c r="J10">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239052</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N10">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q10">
-        <v>608.4599070585491</v>
+        <v>635.1552429414182</v>
       </c>
       <c r="R10">
-        <v>608.4599070585491</v>
+        <v>5716.397186472764</v>
       </c>
       <c r="S10">
-        <v>0.05377901625581298</v>
+        <v>0.05323348654069531</v>
       </c>
       <c r="T10">
-        <v>0.05377901625581298</v>
+        <v>0.0532334865406953</v>
       </c>
     </row>
   </sheetData>
